--- a/Independentsample/ABCD_FD_172_correct.xlsx
+++ b/Independentsample/ABCD_FD_172_correct.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Pegasus_wangyun/ABCD_ITA_Replication/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/posnerlab/Documents/GitHub/LatentDFC_ADHD/Independentsample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38248ECC-00D0-C74E-A916-A84DFF067D48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB453D75-6CC3-E940-82BC-51B18E84F579}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="1340" windowWidth="30360" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5300" yWindow="460" windowWidth="30360" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$173</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,9 +54,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>runs_used</t>
-  </si>
-  <si>
     <t>NDAR_INV06DX0E7R</t>
   </si>
   <si>
@@ -1088,6 +1096,9 @@
   </si>
   <si>
     <t>T2</t>
+  </si>
+  <si>
+    <t>Run_used</t>
   </si>
 </sst>
 </file>
@@ -1491,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1517,30 +1528,30 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F2">
         <v>0.163026</v>
       </c>
       <c r="G2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1548,25 +1559,26 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <f>A2+1</f>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F3">
         <v>0.2232017573511316</v>
       </c>
       <c r="G3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1574,25 +1586,26 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F4">
         <v>0.1922783719243118</v>
       </c>
       <c r="G4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1600,25 +1613,26 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F5">
         <v>0.21107799999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1626,25 +1640,26 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F6">
         <v>0.16034200000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1652,25 +1667,26 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F7">
         <v>0.137823</v>
       </c>
       <c r="G7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1678,25 +1694,26 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F8">
         <v>0.26594699999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1704,25 +1721,26 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F9">
         <v>0.136076</v>
       </c>
       <c r="G9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1730,25 +1748,26 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F10">
         <v>0.29747699999999999</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1756,25 +1775,26 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F11">
         <v>0.27139400000000002</v>
       </c>
       <c r="G11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1782,25 +1802,26 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F12">
         <v>1.5884381187304199E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1808,25 +1829,26 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F13">
         <v>8.0231999999999998E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1834,25 +1856,26 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F14">
         <v>0.119017</v>
       </c>
       <c r="G14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1860,25 +1883,26 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F15">
         <v>0.42264099999999999</v>
       </c>
       <c r="G15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1886,25 +1910,26 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F16">
         <v>0.27682811424211617</v>
       </c>
       <c r="G16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1912,25 +1937,26 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F17">
         <v>0.22458500000000001</v>
       </c>
       <c r="G17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1938,25 +1964,26 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F18">
         <v>0.119223</v>
       </c>
       <c r="G18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1964,25 +1991,26 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F19">
         <v>0.15224799999999999</v>
       </c>
       <c r="G19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1990,25 +2018,26 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F20">
         <v>0.46247300000000002</v>
       </c>
       <c r="G20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2016,25 +2045,26 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F21">
         <v>0.22170300000000001</v>
       </c>
       <c r="G21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2042,25 +2072,26 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F22">
         <v>0.16006699999999999</v>
       </c>
       <c r="G22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2068,25 +2099,26 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F23">
         <v>0.11586200000000001</v>
       </c>
       <c r="G23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2094,25 +2126,26 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F24">
         <v>0.20801900000000001</v>
       </c>
       <c r="G24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2120,25 +2153,26 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F25">
         <v>0.216338</v>
       </c>
       <c r="G25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2146,25 +2180,26 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F26">
         <v>0.26350299999999999</v>
       </c>
       <c r="G26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2172,25 +2207,26 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F27">
         <v>0.3829713091644027</v>
       </c>
       <c r="G27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2198,25 +2234,26 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F28">
         <v>0.19628000000000001</v>
       </c>
       <c r="G28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2224,25 +2261,26 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F29">
         <v>0.41938399999999998</v>
       </c>
       <c r="G29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2250,25 +2288,26 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F30">
         <v>0.20142399999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -2276,25 +2315,26 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F31">
         <v>0.32375700000000002</v>
       </c>
       <c r="G31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -2302,25 +2342,26 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F32">
         <v>0.22104699999999999</v>
       </c>
       <c r="G32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -2328,25 +2369,26 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F33">
         <v>0.25235099999999999</v>
       </c>
       <c r="G33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -2354,25 +2396,26 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F34">
         <v>0.47309800284455328</v>
       </c>
       <c r="G34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -2380,25 +2423,26 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F35">
         <v>0.25599100000000002</v>
       </c>
       <c r="G35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -2406,25 +2450,26 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F36">
         <v>0.20194899999999999</v>
       </c>
       <c r="G36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -2432,25 +2477,26 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F37">
         <v>1.07386106509693E-2</v>
       </c>
       <c r="G37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -2458,25 +2504,26 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F38">
         <v>0.44212832393399942</v>
       </c>
       <c r="G38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -2484,25 +2531,26 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F39">
         <v>5.2879124705987601E-2</v>
       </c>
       <c r="G39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -2510,25 +2558,26 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F40">
         <v>0.28114899999999998</v>
       </c>
       <c r="G40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -2536,25 +2585,26 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F41">
         <v>0.27637099999999998</v>
       </c>
       <c r="G41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -2562,25 +2612,26 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F42">
         <v>0.43521100000000001</v>
       </c>
       <c r="G42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2588,25 +2639,26 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F43">
         <v>0.122042</v>
       </c>
       <c r="G43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -2614,25 +2666,26 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F44">
         <v>0.33560099999999998</v>
       </c>
       <c r="G44" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -2640,25 +2693,26 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F45">
         <v>7.6926979967439899E-2</v>
       </c>
       <c r="G45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -2666,25 +2720,26 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F46">
         <v>0.22212599999999999</v>
       </c>
       <c r="G46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -2692,25 +2747,26 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45</v>
+        <f>A46+1</f>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F47">
         <v>0.35792741860680433</v>
       </c>
       <c r="G47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -2718,25 +2774,26 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F48">
         <v>0.276148</v>
       </c>
       <c r="G48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2744,25 +2801,26 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F49">
         <v>0.30588574483702852</v>
       </c>
       <c r="G49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2770,25 +2828,26 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F50">
         <v>0.33919500000000002</v>
       </c>
       <c r="G50" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -2796,25 +2855,26 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F51">
         <v>1.7315305039027729E-2</v>
       </c>
       <c r="G51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2822,25 +2882,26 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F52">
         <v>0.19272600000000001</v>
       </c>
       <c r="G52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2848,25 +2909,26 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F53">
         <v>0.345472</v>
       </c>
       <c r="G53" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2874,25 +2936,26 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F54">
         <v>0.27303015048759027</v>
       </c>
       <c r="G54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -2900,25 +2963,26 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F55">
         <v>0.13872100000000001</v>
       </c>
       <c r="G55" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -2926,25 +2990,26 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>54</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F56">
         <v>0.26013399999999998</v>
       </c>
       <c r="G56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -2952,25 +3017,26 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F57">
         <v>0.18368799999999999</v>
       </c>
       <c r="G57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -2978,25 +3044,26 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F58">
         <v>0.13042000000000001</v>
       </c>
       <c r="G58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -3004,25 +3071,26 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>57</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F59">
         <v>0.34913100000000002</v>
       </c>
       <c r="G59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -3030,25 +3098,26 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F60">
         <v>0.40619499999999997</v>
       </c>
       <c r="G60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -3056,25 +3125,26 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>59</v>
+        <f>A60+1</f>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F61">
         <v>0.28314400000000001</v>
       </c>
       <c r="G61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -3082,25 +3152,26 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F62">
         <v>0.19722100000000001</v>
       </c>
       <c r="G62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -3108,25 +3179,26 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F63">
         <v>0.105892</v>
       </c>
       <c r="G63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -3134,25 +3206,26 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F64">
         <v>0.29103200000000001</v>
       </c>
       <c r="G64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -3160,25 +3233,26 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F65">
         <v>0.52500892233896557</v>
       </c>
       <c r="G65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -3186,25 +3260,26 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F66">
         <v>1.0122966469199659</v>
       </c>
       <c r="G66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -3212,25 +3287,26 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F67">
         <v>1.0066170000000001</v>
       </c>
       <c r="G67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -3238,25 +3314,26 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>66</v>
+        <f t="shared" ref="A68:A80" si="1">A67+1</f>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F68">
         <v>0.72229095027079682</v>
       </c>
       <c r="G68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -3264,25 +3341,26 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F69">
         <v>1.8271649999999999</v>
       </c>
       <c r="G69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -3290,25 +3368,26 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F70">
         <v>0.57996065963744547</v>
       </c>
       <c r="G70" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -3316,25 +3395,26 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F71">
         <v>0.65775920009769839</v>
       </c>
       <c r="G71" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -3342,25 +3422,26 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F72">
         <v>1.250279153826106</v>
       </c>
       <c r="G72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -3368,25 +3449,26 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>71</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F73">
         <v>1.3677749367744489</v>
       </c>
       <c r="G73" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -3394,25 +3476,26 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F74">
         <v>0.53769564138340564</v>
       </c>
       <c r="G74" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -3420,25 +3503,26 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F75">
         <v>1.1443301594363751</v>
       </c>
       <c r="G75" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -3446,25 +3530,26 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F76">
         <v>0.81674347325603025</v>
       </c>
       <c r="G76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -3472,25 +3557,26 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F77">
         <v>0.82323397344292604</v>
       </c>
       <c r="G77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -3498,25 +3584,26 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F78">
         <v>0.60365995074446999</v>
       </c>
       <c r="G78" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -3524,25 +3611,26 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>77</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F79">
         <v>8.391019</v>
       </c>
       <c r="G79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -3550,25 +3638,26 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F80">
         <v>1.369698459456183</v>
       </c>
       <c r="G80" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -3576,25 +3665,26 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>79</v>
+        <f>A80+1</f>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F81">
         <v>0.59232899999999999</v>
       </c>
       <c r="G81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -3602,25 +3692,26 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>80</v>
+        <f t="shared" ref="A82:A99" si="2">A81+1</f>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F82">
         <v>1.2309654224924671</v>
       </c>
       <c r="G82" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -3628,25 +3719,26 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F83">
         <v>1.0017579999999999</v>
       </c>
       <c r="G83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -3654,25 +3746,26 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>82</v>
+        <f t="shared" si="2"/>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F84">
         <v>0.99029828817004351</v>
       </c>
       <c r="G84" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -3680,25 +3773,26 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F85">
         <v>1.0831325296416949</v>
       </c>
       <c r="G85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -3706,25 +3800,26 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>84</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F86">
         <v>0.84213000000000005</v>
       </c>
       <c r="G86" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -3732,25 +3827,26 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F87">
         <v>1.3578962167897299</v>
       </c>
       <c r="G87" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -3758,25 +3854,26 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>86</v>
+        <f t="shared" si="2"/>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F88">
         <v>0.87287649613697238</v>
       </c>
       <c r="G88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -3784,25 +3881,26 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>87</v>
+        <f t="shared" si="2"/>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F89">
         <v>1.336651722633726</v>
       </c>
       <c r="G89" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -3810,25 +3908,26 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>88</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F90">
         <v>1.2353119130053669</v>
       </c>
       <c r="G90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -3836,25 +3935,26 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>89</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F91">
         <v>0.53209819849879769</v>
       </c>
       <c r="G91" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -3862,25 +3962,26 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F92">
         <v>0.84268976062426382</v>
       </c>
       <c r="G92" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -3888,25 +3989,26 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>91</v>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F93">
         <v>0.84473436704009486</v>
       </c>
       <c r="G93" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -3914,25 +4016,26 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>92</v>
+        <f t="shared" si="2"/>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F94">
         <v>0.58530433424425321</v>
       </c>
       <c r="G94" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -3940,25 +4043,26 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>93</v>
+        <f t="shared" si="2"/>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F95">
         <v>1.263716706790323</v>
       </c>
       <c r="G95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -3966,25 +4070,26 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>94</v>
+        <f t="shared" si="2"/>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F96">
         <v>0.87617100000000003</v>
       </c>
       <c r="G96" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -3992,25 +4097,26 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>95</v>
+        <f t="shared" si="2"/>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F97">
         <v>0.90789446733770085</v>
       </c>
       <c r="G97" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -4018,25 +4124,26 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F98">
         <v>0.58981045387127362</v>
       </c>
       <c r="G98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -4044,25 +4151,26 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>97</v>
+        <f t="shared" si="2"/>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F99">
         <v>1.2658974486947909</v>
       </c>
       <c r="G99" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -4070,25 +4178,26 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>98</v>
+        <f>A99+1</f>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F100">
         <v>0.51065864776766923</v>
       </c>
       <c r="G100" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -4096,25 +4205,26 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>99</v>
+        <f t="shared" ref="A101:A118" si="3">A100+1</f>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F101">
         <v>1.096934090164031</v>
       </c>
       <c r="G101" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -4122,25 +4232,26 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F102">
         <v>0.72361259549339851</v>
       </c>
       <c r="G102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -4148,25 +4259,26 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>101</v>
+        <f t="shared" si="3"/>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F103">
         <v>1.0728782026909589</v>
       </c>
       <c r="G103" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -4174,25 +4286,26 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>102</v>
+        <f t="shared" si="3"/>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F104">
         <v>0.61275301142346239</v>
       </c>
       <c r="G104" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -4200,25 +4313,26 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>103</v>
+        <f t="shared" si="3"/>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F105">
         <v>1.323676500868556</v>
       </c>
       <c r="G105" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -4226,25 +4340,26 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>104</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F106">
         <v>0.62767342673415816</v>
       </c>
       <c r="G106" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -4252,25 +4367,26 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F107">
         <v>0.81895781421221081</v>
       </c>
       <c r="G107" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -4278,25 +4394,26 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>106</v>
+        <f t="shared" si="3"/>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F108">
         <v>0.52953373771399859</v>
       </c>
       <c r="G108" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -4304,25 +4421,26 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>107</v>
+        <f t="shared" si="3"/>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F109">
         <v>0.69147562233359317</v>
       </c>
       <c r="G109" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -4330,25 +4448,26 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>108</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F110">
         <v>1.3332967825076329</v>
       </c>
       <c r="G110" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -4356,25 +4475,26 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>109</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F111">
         <v>1.211198163354454</v>
       </c>
       <c r="G111" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -4382,25 +4502,26 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F112">
         <v>0.52341800000000005</v>
       </c>
       <c r="G112" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -4408,25 +4529,26 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>111</v>
+        <f t="shared" si="3"/>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F113">
         <v>1.389886304975416</v>
       </c>
       <c r="G113" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -4434,25 +4556,26 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>112</v>
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F114">
         <v>1.064686619875657</v>
       </c>
       <c r="G114" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -4460,25 +4583,26 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>113</v>
+        <f t="shared" si="3"/>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F115">
         <v>1.068396508904867</v>
       </c>
       <c r="G115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -4486,25 +4610,26 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>114</v>
+        <f t="shared" si="3"/>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F116">
         <v>0.81457838676883754</v>
       </c>
       <c r="G116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -4512,25 +4637,26 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>115</v>
+        <f t="shared" si="3"/>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F117">
         <v>1.123613510930767</v>
       </c>
       <c r="G117" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -4538,25 +4664,26 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>116</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F118">
         <v>1.287527293599797</v>
       </c>
       <c r="G118" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -4564,25 +4691,26 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>117</v>
+        <f>A118+1</f>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F119">
         <v>0.78693927995561463</v>
       </c>
       <c r="G119" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -4590,25 +4718,26 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>118</v>
+        <f t="shared" ref="A120:A135" si="4">A119+1</f>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F120">
         <v>1.110075211562225</v>
       </c>
       <c r="G120" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -4616,25 +4745,26 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>119</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F121">
         <v>1.1126077652175781</v>
       </c>
       <c r="G121" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -4642,25 +4772,26 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F122">
         <v>1.383533294422191</v>
       </c>
       <c r="G122" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -4668,25 +4799,26 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>121</v>
+        <f t="shared" si="4"/>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F123">
         <v>0.68834864151663433</v>
       </c>
       <c r="G123" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -4694,25 +4826,26 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>122</v>
+        <f t="shared" si="4"/>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F124">
         <v>0.98750698098075185</v>
       </c>
       <c r="G124" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -4720,25 +4853,26 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>123</v>
+        <f t="shared" si="4"/>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F125">
         <v>1.254196132849609</v>
       </c>
       <c r="G125" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -4746,25 +4880,26 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>124</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F126">
         <v>0.86136390665260676</v>
       </c>
       <c r="G126" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -4772,25 +4907,26 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>125</v>
+        <f t="shared" si="4"/>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F127">
         <v>0.61299618214322937</v>
       </c>
       <c r="G127" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -4798,25 +4934,26 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>126</v>
+        <f t="shared" si="4"/>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F128">
         <v>1.3954499352099079</v>
       </c>
       <c r="G128" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -4824,25 +4961,26 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>127</v>
+        <f t="shared" si="4"/>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F129">
         <v>1.4042774181198121</v>
       </c>
       <c r="G129" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -4850,25 +4988,26 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>128</v>
+        <f t="shared" si="4"/>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F130">
         <v>0.95660000000000001</v>
       </c>
       <c r="G130" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -4876,25 +5015,26 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>129</v>
+        <f t="shared" si="4"/>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F131">
         <v>0.18323400000000001</v>
       </c>
       <c r="G131" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -4902,25 +5042,26 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>130</v>
+        <f t="shared" si="4"/>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F132">
         <v>0.18673899999999999</v>
       </c>
       <c r="G132" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -4928,25 +5069,26 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>131</v>
+        <f t="shared" si="4"/>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F133">
         <v>4.6894077008633961E-2</v>
       </c>
       <c r="G133" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -4954,25 +5096,26 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>132</v>
+        <f t="shared" si="4"/>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F134">
         <v>0.16372800000000001</v>
       </c>
       <c r="G134" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -4980,25 +5123,26 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>133</v>
+        <f t="shared" si="4"/>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C135" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F135">
         <v>0.201237306152657</v>
       </c>
       <c r="G135" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -5006,25 +5150,26 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>134</v>
+        <f>A135+1</f>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F136">
         <v>0.25180900000000001</v>
       </c>
       <c r="G136" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -5032,25 +5177,26 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>135</v>
+        <f t="shared" ref="A137:A155" si="5">A136+1</f>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F137">
         <v>0.1240724615398545</v>
       </c>
       <c r="G137" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -5058,25 +5204,26 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>136</v>
+        <f t="shared" si="5"/>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F138">
         <v>0.28212906771096918</v>
       </c>
       <c r="G138" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -5084,25 +5231,26 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>137</v>
+        <f t="shared" si="5"/>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C139" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F139">
         <v>0.193748</v>
       </c>
       <c r="G139" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -5110,25 +5258,26 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>138</v>
+        <f t="shared" si="5"/>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D140">
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F140">
         <v>0.17815</v>
       </c>
       <c r="G140" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -5136,25 +5285,26 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>139</v>
+        <f t="shared" si="5"/>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F141">
         <v>0.30441499999999999</v>
       </c>
       <c r="G141" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -5162,25 +5312,26 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>140</v>
+        <f t="shared" si="5"/>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F142">
         <v>0.27978900000000001</v>
       </c>
       <c r="G142" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -5188,25 +5339,26 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>141</v>
+        <f t="shared" si="5"/>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F143">
         <v>0.15738199999999999</v>
       </c>
       <c r="G143" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -5214,25 +5366,26 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>142</v>
+        <f t="shared" si="5"/>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F144">
         <v>0.27688600000000002</v>
       </c>
       <c r="G144" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -5240,25 +5393,26 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>143</v>
+        <f t="shared" si="5"/>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D145">
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F145">
         <v>0.32547799999999999</v>
       </c>
       <c r="G145" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -5266,25 +5420,26 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>144</v>
+        <f t="shared" si="5"/>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F146">
         <v>0.21117900000000001</v>
       </c>
       <c r="G146" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -5292,25 +5447,26 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>145</v>
+        <f t="shared" si="5"/>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F147">
         <v>0.28248400000000001</v>
       </c>
       <c r="G147" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -5318,25 +5474,26 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>146</v>
+        <f t="shared" si="5"/>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D148">
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F148">
         <v>0.13737199999999999</v>
       </c>
       <c r="G148" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -5344,25 +5501,26 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>147</v>
+        <f t="shared" si="5"/>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F149">
         <v>0.31873000000000001</v>
       </c>
       <c r="G149" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -5370,25 +5528,26 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>148</v>
+        <f t="shared" si="5"/>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C150" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D150">
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F150">
         <v>0.33910899999999999</v>
       </c>
       <c r="G150" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -5396,25 +5555,26 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>149</v>
+        <f t="shared" si="5"/>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C151" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D151">
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F151">
         <v>0.18867400000000001</v>
       </c>
       <c r="G151" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -5422,25 +5582,26 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>150</v>
+        <f t="shared" si="5"/>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C152" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D152">
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F152">
         <v>0.183061</v>
       </c>
       <c r="G152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -5448,25 +5609,26 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>151</v>
+        <f t="shared" si="5"/>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C153" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D153">
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F153">
         <v>0.29877784766280779</v>
       </c>
       <c r="G153" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -5474,25 +5636,26 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>152</v>
+        <f t="shared" si="5"/>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F154">
         <v>0.41835299999999997</v>
       </c>
       <c r="G154" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -5500,25 +5663,26 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>153</v>
+        <f t="shared" si="5"/>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C155" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F155">
         <v>0.140238</v>
       </c>
       <c r="G155" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -5526,25 +5690,26 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>154</v>
+        <f>A155+1</f>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C156" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F156">
         <v>0.208866</v>
       </c>
       <c r="G156" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -5552,25 +5717,26 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>155</v>
+        <f t="shared" ref="A157:A172" si="6">A156+1</f>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C157" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D157">
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F157">
         <v>0.49124078297280221</v>
       </c>
       <c r="G157" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -5578,25 +5744,26 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>156</v>
+        <f t="shared" si="6"/>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F158">
         <v>0.16061500000000001</v>
       </c>
       <c r="G158" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -5604,25 +5771,26 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>157</v>
+        <f t="shared" si="6"/>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C159" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D159">
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F159">
         <v>0.18971099999999999</v>
       </c>
       <c r="G159" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -5630,25 +5798,26 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>158</v>
+        <f t="shared" si="6"/>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C160" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D160">
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F160">
         <v>0.25162699999999999</v>
       </c>
       <c r="G160" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -5656,25 +5825,26 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>159</v>
+        <f t="shared" si="6"/>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D161">
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F161">
         <v>0.11051</v>
       </c>
       <c r="G161" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -5682,25 +5852,26 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C162" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D162">
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F162">
         <v>8.2334000000000004E-2</v>
       </c>
       <c r="G162" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -5708,25 +5879,26 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>161</v>
+        <f t="shared" si="6"/>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C163" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F163">
         <v>0.23174600000000001</v>
       </c>
       <c r="G163" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -5734,25 +5906,26 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>162</v>
+        <f t="shared" si="6"/>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C164" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D164">
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F164">
         <v>0.22528400000000001</v>
       </c>
       <c r="G164" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -5760,25 +5933,26 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>163</v>
+        <f t="shared" si="6"/>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C165" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D165">
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F165">
         <v>0.170901</v>
       </c>
       <c r="G165" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -5786,25 +5960,26 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>164</v>
+        <f t="shared" si="6"/>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C166" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D166">
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F166">
         <v>0.22156300000000001</v>
       </c>
       <c r="G166" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -5812,25 +5987,26 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>165</v>
+        <f t="shared" si="6"/>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C167" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D167">
         <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F167">
         <v>0.20016100000000001</v>
       </c>
       <c r="G167" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -5838,25 +6014,26 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>166</v>
+        <f t="shared" si="6"/>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F168">
         <v>0.31179299999999999</v>
       </c>
       <c r="G168" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -5864,25 +6041,26 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>167</v>
+        <f t="shared" si="6"/>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C169" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D169">
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F169">
         <v>0.14269000000000001</v>
       </c>
       <c r="G169" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -5890,25 +6068,26 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>168</v>
+        <f t="shared" si="6"/>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D170">
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F170">
         <v>0.47502800000000001</v>
       </c>
       <c r="G170" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -5916,25 +6095,26 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>169</v>
+        <f t="shared" si="6"/>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C171" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F171">
         <v>0.60337013052644739</v>
       </c>
       <c r="G171" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -5942,25 +6122,26 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>170</v>
+        <f t="shared" si="6"/>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C172" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F172">
         <v>1.278854346701626</v>
       </c>
       <c r="G172" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -5968,25 +6149,26 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>171</v>
+        <f>A172+1</f>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F173">
         <v>0.66913299999999998</v>
       </c>
       <c r="G173" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H173">
         <v>1</v>
